--- a/data/trans_dic/P18_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 28,4</t>
+          <t>6,32; 33,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 19,39</t>
+          <t>2,97; 28,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,0</t>
+          <t>0,0; 17,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 15,68</t>
+          <t>0,0; 27,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,06; 46,03</t>
+          <t>0,0; 23,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 14,08</t>
+          <t>14,41; 39,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 19,62</t>
+          <t>2,27; 20,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 19,07</t>
+          <t>1,82; 17,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 35,0</t>
+          <t>2,25; 20,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 13,06</t>
+          <t>6,16; 32,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 11,97</t>
+          <t>13,05; 31,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,73</t>
+          <t>4,18; 19,24</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 13,43</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 17,99</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 20,91</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>12,67%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,25%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 43,44</t>
+          <t>11,64; 57,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 42,65</t>
+          <t>5,15; 58,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,88</t>
+          <t>1,78; 19,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 34,51</t>
+          <t>3,88; 51,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 32,03</t>
+          <t>1,42; 17,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,99</t>
+          <t>15,78; 38,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 17,71</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 18,47</t>
+          <t>3,34; 18,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 33,68</t>
+          <t>4,75; 22,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 24,69</t>
+          <t>3,5; 20,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 12,18</t>
+          <t>18,0; 41,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 22,16</t>
+          <t>3,6; 33,47</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 14,33</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 35,03</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 15,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>16,14%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,83; 42,27</t>
+          <t>18,73; 43,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,83</t>
+          <t>3,09; 16,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 26,06</t>
+          <t>3,52; 18,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 14,18</t>
+          <t>2,97; 17,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 33,95</t>
+          <t>14,77; 37,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 15,32</t>
+          <t>19,13; 36,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 22,59</t>
+          <t>5,86; 18,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 18,27</t>
+          <t>10,05; 25,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,13; 35,11</t>
+          <t>7,27; 19,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,62</t>
+          <t>5,08; 17,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 21,0</t>
+          <t>21,38; 34,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 14,08</t>
+          <t>5,87; 15,07</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,37; 19,46</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 16,07</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 23,42</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 33,62</t>
+          <t>18,18; 37,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 12,89</t>
+          <t>2,46; 12,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 19,11</t>
+          <t>7,29; 21,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 20,83</t>
+          <t>6,88; 20,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,03; 43,97</t>
+          <t>3,84; 17,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 22,36</t>
+          <t>31,87; 51,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 30,69</t>
+          <t>11,21; 26,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 31,31</t>
+          <t>20,36; 37,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,59; 37,54</t>
+          <t>18,95; 35,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 16,14</t>
+          <t>19,05; 35,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 23,71</t>
+          <t>28,63; 42,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 23,74</t>
+          <t>8,68; 18,12</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15,88; 28,07</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 26,45</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12,97; 24,76</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 27,21</t>
+          <t>8,84; 26,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 11,46</t>
+          <t>1,36; 12,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 19,87</t>
+          <t>7,03; 24,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 22,01</t>
+          <t>7,09; 23,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,62; 37,34</t>
+          <t>2,9; 16,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 17,07</t>
+          <t>14,89; 38,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,13; 30,74</t>
+          <t>3,91; 20,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,66; 30,8</t>
+          <t>16,75; 42,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,62; 29,37</t>
+          <t>13,73; 36,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 11,83</t>
+          <t>8,78; 30,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,62; 22,8</t>
+          <t>13,2; 27,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,53; 24,04</t>
+          <t>3,24; 12,51</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12,71; 27,1</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 25,75</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 19,8</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 36,66</t>
+          <t>13,75; 41,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 14,4</t>
+          <t>2,39; 25,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,36; 25,79</t>
+          <t>2,39; 23,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 19,95</t>
+          <t>3,67; 24,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,59; 58,93</t>
+          <t>2,21; 20,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 29,23</t>
+          <t>25,65; 55,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,54; 30,76</t>
+          <t>2,19; 19,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,78; 38,29</t>
+          <t>7,76; 29,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,55; 46,38</t>
+          <t>16,27; 46,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 19,54</t>
+          <t>13,55; 55,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,8; 25,26</t>
+          <t>24,07; 45,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,15; 28,05</t>
+          <t>4,17; 17,81</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 22,86</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>13,42; 32,22</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 39,23</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,58; 29,14</t>
+          <t>18,9; 31,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,19</t>
+          <t>6,74; 21,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,49</t>
+          <t>7,07; 13,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,94</t>
+          <t>8,67; 21,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,27; 35,52</t>
+          <t>7,08; 14,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,62</t>
+          <t>26,86; 36,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,06</t>
+          <t>7,56; 13,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,88</t>
+          <t>14,27; 21,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,56; 30,82</t>
+          <t>14,24; 22,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,0</t>
+          <t>14,08; 24,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,02; 16,26</t>
+          <t>24,77; 31,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,71</t>
+          <t>7,98; 15,01</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 16,69</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 19,72</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 18,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido rebosante de energía en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14090</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11666</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13174</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30197</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12019</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7851</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9163</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22081</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>44287</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23685</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12239</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22337</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27967</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5442; 28443</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3183; 30772</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18766</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 34746</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 33952</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16947; 46817</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3037; 27041</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2185; 20905</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2751; 24783</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8967; 47548</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26583; 63900</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10067; 46385</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4285; 30324</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8956; 45000</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>12195; 60907</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39496</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39587</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10457</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27721</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14592</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34687</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11041</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15055</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16338</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>74183</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>42287</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>21498</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>42776</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>30930</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15931; 78243</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8691; 98502</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2558; 28317</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5983; 79731</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3241; 40208</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21034; 51400</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13155</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4237; 22944</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6002; 27910</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5691; 33920</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>48627; 112425</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12019; 111731</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8985; 38693</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18342; 98280</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>13931; 60482</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40046</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13122</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12243</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11560</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>43722</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>57514</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27753</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34153</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24659</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23743</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97561</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40876</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>46396</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>36219</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>67465</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26176; 60159</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5014; 26035</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4732; 25218</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4090; 24703</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26618; 67556</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40840; 77059</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15318; 49003</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21043; 52795</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14576; 39804</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12087; 42172</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>75512; 122511</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24859; 63829</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>28774; 66884</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22923; 54332</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>44726; 97902</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43607</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11773</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22035</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20435</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18083</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>79348</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38907</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51633</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45794</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>57308</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>122956</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>50680</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>73668</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>66229</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>75391</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>29718; 61097</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4592; 23703</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11759; 35198</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10745; 32320</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7616; 34206</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>60343; 97768</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24219; 56312</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37854; 69669</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32407; 61128</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40530; 75487</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>101030; 148957</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34951; 72981</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>55131; 97429</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>49434; 86539</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>53301; 101725</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22938</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8520</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18360</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17081</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12806</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25226</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11123</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25074</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21532</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>23306</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>48165</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19643</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>43434</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>38613</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>36112</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12274; 36939</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2144; 19195</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9291; 31747</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8733; 28567</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4413; 25278</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15407; 39687</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4460; 23634</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15411; 38769</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12725; 33730</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11793; 41583</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31983; 65480</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8809; 33956</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>28488; 60739</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>25905; 55580</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>21739; 56689</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>23078</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10213</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9053</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10470</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>41312</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12291</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17567</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>32170</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>58693</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>64390</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>22504</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>26620</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>42423</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>69163</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11935; 36052</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2545; 27223</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2088; 20921</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3308; 22415</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3051; 27796</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26310; 57331</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3020; 26470</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8156; 31335</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17325; 49366</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>28100; 116090</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>45590; 86483</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10166; 43452</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>14319; 43999</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>26393; 63365</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>32961; 135443</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>183256</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>94882</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>76535</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>100226</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>105560</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>268285</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>104793</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>147320</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>148372</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>201469</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>451541</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>199675</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>223855</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>248598</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>307029</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>142102; 235021</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>59848; 187965</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>54003; 104261</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>68433; 168403</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>73719; 148790</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>230942; 310550</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>77693; 137695</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>119723; 181054</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>116670; 181332</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>154870; 269692</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>399120; 511199</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>152945; 287749</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>184386; 267669</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>207353; 317241</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>246061; 397175</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>